--- a/test_files/10. Свод начислений ТЭ2100-00812 с учетом кор-ки от 31.07.21.xlsx
+++ b/test_files/10. Свод начислений ТЭ2100-00812 с учетом кор-ки от 31.07.21.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\KTK\Отдел Энергобалансов\Г_Учета\Корзунина\ПИР\ПИР 2021\07.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akorz\Desktop\Adjustment-calculator\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4291FD5F-25AE-4155-A157-19C6A0E4B9EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="0"/>
+    <workbookView xWindow="1080" yWindow="1680" windowWidth="21600" windowHeight="11385" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -108,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
@@ -207,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -215,111 +216,132 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -335,9 +357,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -375,7 +397,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -410,6 +432,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -445,9 +484,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -620,7 +676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
@@ -628,7 +684,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -639,10 +695,10 @@
     <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="1.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="33.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="50.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="33.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="23" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="24.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="11.6640625" style="1" customWidth="1"/>
@@ -676,37 +732,37 @@
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="43"/>
+      <c r="G6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="23" t="s">
         <v>13</v>
       </c>
     </row>
@@ -716,218 +772,218 @@
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>1.5271699999999999</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="40">
         <v>3012.89</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="5">
+      <c r="F7" s="41"/>
+      <c r="G7" s="4">
         <v>502.15</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="7">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="6">
         <v>1.5271699999999999</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="38">
         <v>3012.89</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="8">
+      <c r="F8" s="39"/>
+      <c r="G8" s="7">
         <v>502.15</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>733</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:14" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="12">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="11">
         <v>54.685049999999997</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="36">
         <v>107885.95</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="13">
+      <c r="F9" s="37"/>
+      <c r="G9" s="24">
         <v>17980.990000000002</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="12">
         <v>733</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="16">
+      <c r="L9" s="13"/>
+      <c r="M9" s="14">
         <v>1644.05</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="12">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="11">
         <v>-54.685049999999997</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="36">
         <v>-107885.95</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="13">
+      <c r="F10" s="37"/>
+      <c r="G10" s="24">
         <v>-17980.990000000002</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="12">
         <v>733</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="14">
         <v>1644.05</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="12">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="11">
         <v>1.5271699999999999</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="36">
         <v>3012.89</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="17">
+      <c r="F11" s="37"/>
+      <c r="G11" s="25">
         <v>502.15</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="12">
         <v>733</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="14">
         <v>1644.05</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="12">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="11">
         <v>10.744949999999999</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="36">
         <v>21198.28</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="13">
+      <c r="F12" s="37"/>
+      <c r="G12" s="24">
         <v>3533.05</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="12">
         <v>733</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="16">
+      <c r="L12" s="13"/>
+      <c r="M12" s="14">
         <v>1644.05</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="12">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="11">
         <v>-10.744949999999999</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="36">
         <v>-21198.28</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="13">
+      <c r="F13" s="37"/>
+      <c r="G13" s="24">
         <v>-3533.05</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="12">
         <v>733</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="14">
         <v>1644.05</v>
       </c>
       <c r="N13" t="s">
@@ -940,103 +996,103 @@
       </c>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:14" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="9">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="8">
         <v>733</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:14" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="12">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="11">
         <v>0.80357999999999996</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="36">
         <v>1585.36</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="17">
+      <c r="F16" s="37"/>
+      <c r="G16" s="25">
         <v>264.23</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="12">
         <v>733</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="J16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="15"/>
-      <c r="M16" s="16">
+      <c r="L16" s="13"/>
+      <c r="M16" s="14">
         <v>1644.05</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="12">
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="11">
         <v>-0.80357999999999996</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="36">
         <v>-1585.36</v>
       </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="17">
+      <c r="F17" s="37"/>
+      <c r="G17" s="25">
         <v>-264.23</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="12">
         <v>733</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="15" t="s">
+      <c r="L17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="14">
         <v>1644.05</v>
       </c>
       <c r="N17" t="s">
@@ -1049,131 +1105,153 @@
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:14" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="9">
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="8">
         <v>733</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
     </row>
     <row r="20" spans="1:14" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="12">
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="11">
         <v>0.40493000000000001</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="32">
         <v>798.88</v>
       </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="17">
+      <c r="F20" s="33"/>
+      <c r="G20" s="25">
         <v>133.15</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="12">
         <v>733</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="15" t="s">
+      <c r="K20" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L20" s="15"/>
-      <c r="M20" s="16">
+      <c r="L20" s="13"/>
+      <c r="M20" s="14">
         <v>1644.05</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="12">
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="11">
         <v>-0.40493000000000001</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="32">
         <v>-798.88</v>
       </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="17">
+      <c r="F21" s="33"/>
+      <c r="G21" s="25">
         <v>-133.15</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="12">
         <v>733</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="J21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K21" s="15" t="s">
+      <c r="K21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="15" t="s">
+      <c r="L21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="16">
+      <c r="M21" s="14">
         <v>1644.05</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="25">
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="21">
         <v>1.5271699999999999</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="34">
         <v>3012.89</v>
       </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="26">
+      <c r="F22" s="35"/>
+      <c r="G22" s="22">
         <v>502.15</v>
       </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="E17:F17"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="A18:C18"/>
@@ -1182,28 +1260,6 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup scale="58" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>

--- a/test_files/10. Свод начислений ТЭ2100-00812 с учетом кор-ки от 31.07.21.xlsx
+++ b/test_files/10. Свод начислений ТЭ2100-00812 с учетом кор-ки от 31.07.21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akorz\Desktop\Adjustment-calculator\test_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akorz\Desktop\Python_code\Adjustment-calculator\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4291FD5F-25AE-4155-A157-19C6A0E4B9EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CD85EE-735F-4CB6-B3E4-815C738054C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1680" windowWidth="21600" windowHeight="11385" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -40,70 +40,70 @@
     <t>Количество</t>
   </si>
   <si>
+    <t>Сумма НДС</t>
+  </si>
+  <si>
+    <t>Номенклатура.Код</t>
+  </si>
+  <si>
+    <t>Номенклатура</t>
+  </si>
+  <si>
+    <t>Теплоустановка</t>
+  </si>
+  <si>
+    <t>Дата СФ</t>
+  </si>
+  <si>
+    <t>Вид СФ</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Март 2021</t>
+  </si>
+  <si>
+    <t>Теплоэнергия в горячей воде</t>
+  </si>
+  <si>
+    <t>2100812000_ПРЕОБРАЖЕНСКАЯ 97 ЖИЛ. СТРОЙКА</t>
+  </si>
+  <si>
+    <t>Июль 2021</t>
+  </si>
+  <si>
+    <t>Корректировочный СФ</t>
+  </si>
+  <si>
+    <t>2100812001_ПРЕОБРАЖЕНСКАЯ 97 УЧР. 46,9м2</t>
+  </si>
+  <si>
+    <t>2100812001_ПРЕОБРАЖЕНСКАЯ 97 УЧР. СТРОЙКА</t>
+  </si>
+  <si>
+    <t>Апрель 2021</t>
+  </si>
+  <si>
+    <t>Июнь 2021</t>
+  </si>
+  <si>
+    <t>Исправление СФ</t>
+  </si>
+  <si>
+    <t>Май 2021</t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>СЗ-70300-211-0027 от 29.03.2021 исп. Чулкина АА, Смирнова ОН</t>
+  </si>
+  <si>
+    <t>СЗ-70308-13-0302 от 15.06.2021 исп.Смирнова О.Н.</t>
+  </si>
+  <si>
     <t>Сумма</t>
-  </si>
-  <si>
-    <t>Сумма НДС</t>
-  </si>
-  <si>
-    <t>Номенклатура.Код</t>
-  </si>
-  <si>
-    <t>Номенклатура</t>
-  </si>
-  <si>
-    <t>Теплоустановка</t>
-  </si>
-  <si>
-    <t>Дата СФ</t>
-  </si>
-  <si>
-    <t>Вид СФ</t>
-  </si>
-  <si>
-    <t>Цена</t>
-  </si>
-  <si>
-    <t>Март 2021</t>
-  </si>
-  <si>
-    <t>Теплоэнергия в горячей воде</t>
-  </si>
-  <si>
-    <t>2100812000_ПРЕОБРАЖЕНСКАЯ 97 ЖИЛ. СТРОЙКА</t>
-  </si>
-  <si>
-    <t>Июль 2021</t>
-  </si>
-  <si>
-    <t>Корректировочный СФ</t>
-  </si>
-  <si>
-    <t>2100812001_ПРЕОБРАЖЕНСКАЯ 97 УЧР. 46,9м2</t>
-  </si>
-  <si>
-    <t>2100812001_ПРЕОБРАЖЕНСКАЯ 97 УЧР. СТРОЙКА</t>
-  </si>
-  <si>
-    <t>Апрель 2021</t>
-  </si>
-  <si>
-    <t>Июнь 2021</t>
-  </si>
-  <si>
-    <t>Исправление СФ</t>
-  </si>
-  <si>
-    <t>Май 2021</t>
-  </si>
-  <si>
-    <t>Итого</t>
-  </si>
-  <si>
-    <t>СЗ-70300-211-0027 от 29.03.2021 исп. Чулкина АА, Смирнова ОН</t>
-  </si>
-  <si>
-    <t>СЗ-70308-13-0302 от 15.06.2021 исп.Смирнова О.Н.</t>
   </si>
 </sst>
 </file>
@@ -289,55 +289,55 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,28 +684,28 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="E6" sqref="E6:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="33.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="1" customWidth="1"/>
     <col min="10" max="10" width="23" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="24.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="24.44140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="11.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:14" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:14" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -716,69 +716,69 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:14" ht="26.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="23" t="s">
+      <c r="H6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="I6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="J6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="K6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="L6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="M6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="23" t="s">
+    </row>
+    <row r="7" spans="1:14" ht="11.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="3">
         <v>1.5271699999999999</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="31">
         <v>3012.89</v>
       </c>
-      <c r="F7" s="41"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="4">
         <v>502.15</v>
       </c>
@@ -789,19 +789,19 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:14" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
+    <row r="8" spans="1:14" ht="11.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="6">
         <v>1.5271699999999999</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="34">
         <v>3012.89</v>
       </c>
-      <c r="F8" s="39"/>
+      <c r="F8" s="35"/>
       <c r="G8" s="7">
         <v>502.15</v>
       </c>
@@ -809,26 +809,26 @@
         <v>733</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:14" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
+    <row r="9" spans="1:14" ht="11.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A9" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="11">
         <v>54.685049999999997</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="37">
         <v>107885.95</v>
       </c>
-      <c r="F9" s="37"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="24">
         <v>17980.990000000002</v>
       </c>
@@ -836,32 +836,32 @@
         <v>733</v>
       </c>
       <c r="I9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="13" t="s">
-        <v>16</v>
-      </c>
       <c r="K9" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="14">
         <v>1644.05</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
+    <row r="10" spans="1:14" ht="11.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A10" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="11">
         <v>-54.685049999999997</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="37">
         <v>-107885.95</v>
       </c>
-      <c r="F10" s="37"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="24">
         <v>-17980.990000000002</v>
       </c>
@@ -869,34 +869,34 @@
         <v>733</v>
       </c>
       <c r="I10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="K10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="L10" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>18</v>
       </c>
       <c r="M10" s="14">
         <v>1644.05</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
+    <row r="11" spans="1:14" ht="11.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A11" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="11">
         <v>1.5271699999999999</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="37">
         <v>3012.89</v>
       </c>
-      <c r="F11" s="37"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="25">
         <v>502.15</v>
       </c>
@@ -904,34 +904,34 @@
         <v>733</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>18</v>
       </c>
       <c r="M11" s="14">
         <v>1644.05</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
+    <row r="12" spans="1:14" ht="11.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A12" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="11">
         <v>10.744949999999999</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="37">
         <v>21198.28</v>
       </c>
-      <c r="F12" s="37"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="24">
         <v>3533.05</v>
       </c>
@@ -939,32 +939,32 @@
         <v>733</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L12" s="13"/>
       <c r="M12" s="14">
         <v>1644.05</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
+    <row r="13" spans="1:14" ht="11.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A13" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="11">
         <v>-10.744949999999999</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="37">
         <v>-21198.28</v>
       </c>
-      <c r="F13" s="37"/>
+      <c r="F13" s="38"/>
       <c r="G13" s="24">
         <v>-3533.05</v>
       </c>
@@ -972,30 +972,30 @@
         <v>733</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>18</v>
       </c>
       <c r="M13" s="14">
         <v>1644.05</v>
       </c>
       <c r="N13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="11.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="15"/>
       <c r="E14" s="16"/>
       <c r="F14" s="17"/>
@@ -1007,12 +1007,12 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:14" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
+    <row r="15" spans="1:14" ht="11.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="18"/>
       <c r="E15" s="19"/>
       <c r="F15" s="20"/>
@@ -1021,26 +1021,26 @@
         <v>733</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:14" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
+    <row r="16" spans="1:14" ht="11.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="11">
         <v>0.80357999999999996</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="37">
         <v>1585.36</v>
       </c>
-      <c r="F16" s="37"/>
+      <c r="F16" s="38"/>
       <c r="G16" s="25">
         <v>264.23</v>
       </c>
@@ -1048,32 +1048,32 @@
         <v>733</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L16" s="13"/>
       <c r="M16" s="14">
         <v>1644.05</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
+    <row r="17" spans="1:14" ht="11.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="11">
         <v>-0.80357999999999996</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="37">
         <v>-1585.36</v>
       </c>
-      <c r="F17" s="37"/>
+      <c r="F17" s="38"/>
       <c r="G17" s="25">
         <v>-264.23</v>
       </c>
@@ -1081,30 +1081,30 @@
         <v>733</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K17" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>23</v>
       </c>
       <c r="M17" s="14">
         <v>1644.05</v>
       </c>
       <c r="N17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="11.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="15"/>
       <c r="E18" s="16"/>
       <c r="F18" s="17"/>
@@ -1116,12 +1116,12 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:14" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+    <row r="19" spans="1:14" ht="11.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="18"/>
       <c r="E19" s="19"/>
       <c r="F19" s="20"/>
@@ -1130,26 +1130,26 @@
         <v>733</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="1:14" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
+    <row r="20" spans="1:14" ht="11.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A20" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="11">
         <v>0.40493000000000001</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="42">
         <v>798.88</v>
       </c>
-      <c r="F20" s="33"/>
+      <c r="F20" s="43"/>
       <c r="G20" s="25">
         <v>133.15</v>
       </c>
@@ -1157,32 +1157,32 @@
         <v>733</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L20" s="13"/>
       <c r="M20" s="14">
         <v>1644.05</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
+    <row r="21" spans="1:14" ht="11.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A21" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="11">
         <v>-0.40493000000000001</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="42">
         <v>-798.88</v>
       </c>
-      <c r="F21" s="33"/>
+      <c r="F21" s="43"/>
       <c r="G21" s="25">
         <v>-133.15</v>
       </c>
@@ -1190,34 +1190,34 @@
         <v>733</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K21" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>23</v>
       </c>
       <c r="M21" s="14">
         <v>1644.05</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
+    <row r="22" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="21">
         <v>1.5271699999999999</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="40">
         <v>3012.89</v>
       </c>
-      <c r="F22" s="35"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="22">
         <v>502.15</v>
       </c>
@@ -1230,28 +1230,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="E17:F17"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="A18:C18"/>
@@ -1260,6 +1238,28 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup scale="58" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
